--- a/data/output/ocr.xlsx
+++ b/data/output/ocr.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>file_name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -461,7 +465,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>processed_utc</t>
         </is>
       </c>
     </row>
@@ -479,16 +483,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Indian Oil Corporation Limited</t>
+          <t>Table name</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-12-17 08:36:40</t>
-        </is>
+        <v>0.9946</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>46009.45200974537</v>
       </c>
     </row>
     <row r="3">
@@ -505,16 +507,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Invoice No: IOCL-2024-INV-001</t>
+          <t>daily historcal stoci prices .</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-12-17 08:36:40</t>
-        </is>
+        <v>0.2761</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>46009.45200974537</v>
       </c>
     </row>
     <row r="4">
@@ -531,16 +531,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Total Amount Payable: ₹1000</t>
+          <t>volumes</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-12-17 08:36:40</t>
-        </is>
+        <v>0.4361</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>46009.45200974537</v>
       </c>
     </row>
     <row r="5">
@@ -557,16 +555,3854 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Authorized Signature</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-12-17 08:36:40</t>
-        </is>
+        <v>0.2717</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>High]</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7724</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5629</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Last</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9499</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>01Doi7</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0698</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.325.440</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>01/032017</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9849</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6_-84</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5315</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>52.1258</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2669</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>62.58</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9582000000000001</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20,655.190</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9762</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>122202016</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3272</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>62 I4</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.575.720</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5879</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12/292016</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6_-86</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4201</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10,248.460</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9288</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12/2822016</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5154</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[4.348.340</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12/2722016</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3813</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>63 28</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1L743.650</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[322016</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2735</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.399.540</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12222016</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6415999999999999</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.175.270]</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3772</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12/212016</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>63-54</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17,08+,370</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>122202016</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5311</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>63 69</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5837</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>53 026</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1336</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>63 54</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8369</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>26,017,470</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7218</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>124920ig</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0712</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>63 62</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>34,318.500</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>362016</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6011</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>42,452.660</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7669</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>46009.45200974537</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tmreebhuatlexdedrtem</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0791</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Duorowz</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0516</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Zrd</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>01a32017</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>eux</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1063</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3488</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>206551221</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[12nn016</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Qm</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.4265</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>14</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>rstt@</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0735</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>15</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0237016</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>16</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>17</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1024/o</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0548</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>pznv01o</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0347</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>19</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>20</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ezzora</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.2716</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>21</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0J4</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.4607</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>22</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>u3</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0582</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>pmnouo</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.1452</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>24</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1s</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.3746</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7846</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>26</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2IkI</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>27</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[2UOI6</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0731</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>28</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>475L</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1nono1e</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>31</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>00r</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6702</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>32</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>IItaw</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>33</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Wvo1o</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>34</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>35</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2u@</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.07489999999999999</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>36</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>W2n6n016</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>37</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.1919</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>38</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.1294</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>39</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ows]</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1549</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>40</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4452E0</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>46015.3009153588</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Tmreebhuatlexdedrtem</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0791</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Duorowz</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0516</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Zrd</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>01a32017</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>8</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>eux</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1063</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>10</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3488</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>206551221</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>12</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[12nn016</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>13</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Qm</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.4265</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>14</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>rstt@</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0735</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>15</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0237016</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>16</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>17</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1024/o</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0548</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>18</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>pznv01o</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0347</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>19</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>20</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Ezzora</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.2716</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>21</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0J4</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.4607</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>22</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>u3</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0582</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>23</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>pmnouo</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1452</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>24</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1s</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.3746</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>25</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.7846</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>26</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2IkI</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>27</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[2UOI6</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0731</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>28</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>29</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>475L</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>30</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1nono1e</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>31</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>00r</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6702</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>32</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>IItaw</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>33</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Wvo1o</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>34</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>35</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2u@</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.07489999999999999</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>36</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>W2n6n016</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>37</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.1919</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>38</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.1294</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>39</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>ows]</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.1549</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>40</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4452E0</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>46015.30579377315</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Tmreebhuatlexdedrtem</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0791</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Duorowz</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.0516</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Zrd</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>01a32017</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>8</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>eux</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.1063</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>10</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.3488</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>206551221</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0403</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[12nn016</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>13</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Qm</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.4265</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>14</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>rstt@</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0735</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0237016</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>16</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>17</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1024/o</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0548</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>18</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>pznv01o</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.0347</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>19</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>20</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Ezzora</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.2716</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>21</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0J4</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4607</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>22</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>u3</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.0582</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>23</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>pmnouo</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.1452</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>24</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1s</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.3746</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>25</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.7846</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>26</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2IkI</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[2UOI6</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.0731</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>28</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>29</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>475L</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>30</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1nono1e</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>31</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>00r</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.6702</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>32</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>IItaw</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>33</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Wvo1o</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>34</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>35</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2u@</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.07489999999999999</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>36</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>W2n6n016</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>37</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.1919</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>38</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.1294</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>39</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>ows]</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.1549</v>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>46015.30790904717</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>40</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>4452E0</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>46015.30790904717</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/ocr.xlsx
+++ b/data/output/ocr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3466,7 +3466,7 @@
         <v>0.005</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="127">
@@ -3490,7 +3490,7 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="128">
@@ -3514,7 +3514,7 @@
         <v>0.0791</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="129">
@@ -3538,7 +3538,7 @@
         <v>0.0516</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="130">
@@ -3562,7 +3562,7 @@
         <v>0.2427</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="131">
@@ -3586,7 +3586,7 @@
         <v>0.0134</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="132">
@@ -3610,7 +3610,7 @@
         <v>0.0218</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="133">
@@ -3634,7 +3634,7 @@
         <v>0.0368</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="134">
@@ -3658,7 +3658,7 @@
         <v>0.1063</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="135">
@@ -3682,7 +3682,7 @@
         <v>0.3488</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="136">
@@ -3706,7 +3706,7 @@
         <v>0.0403</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="137">
@@ -3730,7 +3730,7 @@
         <v>0.0663</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="138">
@@ -3754,7 +3754,7 @@
         <v>0.4265</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="139">
@@ -3778,7 +3778,7 @@
         <v>0.0735</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="140">
@@ -3802,7 +3802,7 @@
         <v>0.6008</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="141">
@@ -3826,7 +3826,7 @@
         <v>0.1647</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="142">
@@ -3850,7 +3850,7 @@
         <v>0.0548</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="143">
@@ -3874,7 +3874,7 @@
         <v>0.0347</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="144">
@@ -3898,7 +3898,7 @@
         <v>0.0214</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="145">
@@ -3922,7 +3922,7 @@
         <v>0.2716</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="146">
@@ -3946,7 +3946,7 @@
         <v>0.4607</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="147">
@@ -3970,7 +3970,7 @@
         <v>0.0582</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="148">
@@ -3994,7 +3994,7 @@
         <v>0.1452</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="149">
@@ -4018,7 +4018,7 @@
         <v>0.3746</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="150">
@@ -4042,7 +4042,7 @@
         <v>0.7846</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="151">
@@ -4066,7 +4066,7 @@
         <v>0.011</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="152">
@@ -4090,7 +4090,7 @@
         <v>0.0731</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="153">
@@ -4114,7 +4114,7 @@
         <v>0.1241</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="154">
@@ -4138,7 +4138,7 @@
         <v>0.0126</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="155">
@@ -4162,7 +4162,7 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="156">
@@ -4186,7 +4186,7 @@
         <v>0.6702</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="157">
@@ -4210,7 +4210,7 @@
         <v>0.0107</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="158">
@@ -4234,7 +4234,7 @@
         <v>0.1008</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="159">
@@ -4258,7 +4258,7 @@
         <v>0.4274</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="160">
@@ -4282,7 +4282,7 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="161">
@@ -4306,7 +4306,7 @@
         <v>0.1485</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="162">
@@ -4330,7 +4330,7 @@
         <v>0.1919</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="163">
@@ -4354,7 +4354,7 @@
         <v>0.1294</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="164">
@@ -4378,7 +4378,7 @@
         <v>0.1549</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
       </c>
     </row>
     <row r="165">
@@ -4402,7 +4402,1855 @@
         <v>0.1519</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>46015.30790904717</v>
+        <v>46015.30790905093</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Table name : daily historical stock prices &amp; volumes</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.7454</v>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.9962</v>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.9983</v>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.9408</v>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Close / Last</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.8614000000000001</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>7</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>01/042017</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.8895999999999999</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>62.48</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>10</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>62.75</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.9989</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.9709</v>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>62.3</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.8463000000000001</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>13</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>21,325.140</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.6407</v>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>14</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>01/032017</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.9949</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>15</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.9391</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>16</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>62.84</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.7379</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>17</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>62.125</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.9804</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>18</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>62.58</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.9938</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>19</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>20.655.190</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.8376</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>20</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>12802016</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.3903</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>21</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>62.96</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.9227</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>22</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.7383</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>23</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>24</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>62.14</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>25</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>25,575,.720</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.4766</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>26</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[2229122016</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.2677</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>27</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.5837</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>28</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>62.73</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.9092</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>29</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>62.9</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.6122</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>30</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>10,248.460</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.5913</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>31</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>12/2812016</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.4521</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>32</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.3206</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>33</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.5787</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>34</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.6274</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>35</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>14.348.340</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>36</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>12/27/2016</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.4713</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>37</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>63.21</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.9663</v>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>38</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.5362</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>39</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>63.21</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.9296</v>
+      </c>
+      <c r="F204" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>40</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>63.28</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="F205" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>41</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>11,743,650</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.8334</v>
+      </c>
+      <c r="F206" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>42</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>12/2302016</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.5246</v>
+      </c>
+      <c r="F207" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>43</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="F208" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>44</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>63.54</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0.9841</v>
+      </c>
+      <c r="F209" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>45</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>62.8</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.9646</v>
+      </c>
+      <c r="F210" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>46</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="F211" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>47</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>12.399.540</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0.6412</v>
+      </c>
+      <c r="F212" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>48</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>120222016</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0.4854</v>
+      </c>
+      <c r="F213" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>49</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>63.84</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0.8835</v>
+      </c>
+      <c r="F214" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>50</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>64.</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0.4165</v>
+      </c>
+      <c r="F215" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>51</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>63.405</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="F216" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>52</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>63.55</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>53</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>22.175.2701</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0.2873</v>
+      </c>
+      <c r="F218" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>54</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>120212016</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0.2444</v>
+      </c>
+      <c r="F219" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>55</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0.9579</v>
+      </c>
+      <c r="F220" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>56</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0.9764</v>
+      </c>
+      <c r="F221" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>57</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>0.9943</v>
+      </c>
+      <c r="F222" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>58</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>63.54</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0.9989</v>
+      </c>
+      <c r="F223" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>59</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>17.084.370</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0.6364</v>
+      </c>
+      <c r="F224" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>60</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>12/202016</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>0.5682</v>
+      </c>
+      <c r="F225" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>61</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>63.69</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="F226" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>62</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>0.8535</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>63</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>63.025</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>64</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>63.54</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>65</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>26,017,470</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>0.3713</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>66</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>12/1922016</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0.8508</v>
+      </c>
+      <c r="F231" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>67</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>0.9825</v>
+      </c>
+      <c r="F232" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>68</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0.9641</v>
+      </c>
+      <c r="F233" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>69</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>62.42</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>0.6025</v>
+      </c>
+      <c r="F234" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>70</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>63.62</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0.9969</v>
+      </c>
+      <c r="F235" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>71</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>34.318.500</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0.6714</v>
+      </c>
+      <c r="F236" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>72</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>12/16/2016</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0.6476</v>
+      </c>
+      <c r="F237" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>73</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>0.9923</v>
+      </c>
+      <c r="F238" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>74</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0.8603</v>
+      </c>
+      <c r="F239" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>75</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>62415</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0.6682</v>
+      </c>
+      <c r="F240" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>76</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>62.3</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0.8794</v>
+      </c>
+      <c r="F241" s="2" t="n">
+        <v>46017.42774371999</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>sample1.PNG</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>77</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>42,452.660</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0.6391</v>
+      </c>
+      <c r="F242" s="2" t="n">
+        <v>46017.42774371999</v>
       </c>
     </row>
   </sheetData>
